--- a/mip/knapsack/data/multi_knapsacks.xlsx
+++ b/mip/knapsack/data/multi_knapsacks.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brunoleite\OneDrive - Suzano S A\Área de Trabalho\Desafio das Mochilas\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\OneDrive\Área de Trabalho\Python Packages\optimization-demo-files\mip\knapsack\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{4DF965C2-68ED-45C8-A540-255538738660}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{FE42DE06-4978-4D98-92DD-2BCAFD576C92}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F053FEF5-BF3B-409A-8524-73C74637BAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="1" r:id="rId1"/>
-    <sheet name="backpacks" sheetId="2" r:id="rId2"/>
+    <sheet name="knapsacks" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">items!$A$1:$F$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">items!$A$1:$E$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="16">
-  <si>
-    <t>category</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>weight</t>
   </si>
@@ -47,30 +44,6 @@
   </si>
   <si>
     <t>available</t>
-  </si>
-  <si>
-    <t>eletronics</t>
-  </si>
-  <si>
-    <t>beverage</t>
-  </si>
-  <si>
-    <t>clothing</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>max_weight</t>
-  </si>
-  <si>
-    <t>max_volume</t>
-  </si>
-  <si>
-    <t>max_categories</t>
   </si>
   <si>
     <t>A</t>
@@ -443,15 +416,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,1040 +437,884 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
+      <c r="B2">
+        <v>4.6612949253856577</v>
       </c>
       <c r="C2">
-        <v>4.6612949253856577</v>
+        <v>1.0021111870774551</v>
       </c>
       <c r="D2">
-        <v>1.0021111870774551</v>
+        <v>1.9479386519540129</v>
       </c>
       <c r="E2">
-        <v>1.9479386519540129</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
+      <c r="B3">
+        <v>7.5147174714382077</v>
       </c>
       <c r="C3">
-        <v>7.5147174714382077</v>
+        <v>1.146790655011221</v>
       </c>
       <c r="D3">
-        <v>1.146790655011221</v>
+        <v>5.189848498086759</v>
       </c>
       <c r="E3">
-        <v>5.189848498086759</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
+      <c r="B4">
+        <v>8.9960277450672361</v>
       </c>
       <c r="C4">
-        <v>8.9960277450672361</v>
+        <v>5.0106434806956308</v>
       </c>
       <c r="D4">
-        <v>5.0106434806956308</v>
+        <v>4.4315702843652449</v>
       </c>
       <c r="E4">
-        <v>4.4315702843652449</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
+      <c r="B5">
+        <v>3.684528628999963</v>
       </c>
       <c r="C5">
-        <v>3.684528628999963</v>
+        <v>4.4895473832104287</v>
       </c>
       <c r="D5">
-        <v>4.4895473832104287</v>
+        <v>6.1574675225911202</v>
       </c>
       <c r="E5">
-        <v>6.1574675225911202</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
+      <c r="B6">
+        <v>5.8116559598080189</v>
       </c>
       <c r="C6">
-        <v>5.8116559598080189</v>
+        <v>3.5729540772077102</v>
       </c>
       <c r="D6">
-        <v>3.5729540772077102</v>
+        <v>5.3743106293504299</v>
       </c>
       <c r="E6">
-        <v>5.3743106293504299</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
+      <c r="B7">
+        <v>5.0675276545279679</v>
       </c>
       <c r="C7">
-        <v>5.0675276545279679</v>
+        <v>1.8128594374592559</v>
       </c>
       <c r="D7">
-        <v>1.8128594374592559</v>
+        <v>5.9013573402242434</v>
       </c>
       <c r="E7">
-        <v>5.9013573402242434</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
+      <c r="B8">
+        <v>5.5495480869339042</v>
       </c>
       <c r="C8">
-        <v>5.5495480869339042</v>
+        <v>5.4419640790618411</v>
       </c>
       <c r="D8">
-        <v>5.4419640790618411</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
+      <c r="B9">
+        <v>2.0944342048844931</v>
       </c>
       <c r="C9">
-        <v>2.0944342048844931</v>
+        <v>1.1851511699222641</v>
       </c>
       <c r="D9">
-        <v>1.1851511699222641</v>
+        <v>5.8741965711466504</v>
       </c>
       <c r="E9">
-        <v>5.8741965711466504</v>
-      </c>
-      <c r="F9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>6</v>
+      <c r="B10">
+        <v>2.876504396141621</v>
       </c>
       <c r="C10">
-        <v>2.876504396141621</v>
+        <v>7.0296186919217956</v>
       </c>
       <c r="D10">
-        <v>7.0296186919217956</v>
+        <v>2.8159357191296701</v>
       </c>
       <c r="E10">
-        <v>2.8159357191296701</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>8</v>
+      <c r="B11">
+        <v>2.4759443680188848</v>
       </c>
       <c r="C11">
-        <v>2.4759443680188848</v>
+        <v>4.6864691145184798</v>
       </c>
       <c r="D11">
-        <v>4.6864691145184798</v>
+        <v>6.1633796227705497</v>
       </c>
       <c r="E11">
-        <v>6.1633796227705497</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>6</v>
+      <c r="B12">
+        <v>9.5012331594069241</v>
       </c>
       <c r="C12">
-        <v>9.5012331594069241</v>
+        <v>9.318976296687925</v>
       </c>
       <c r="D12">
-        <v>9.318976296687925</v>
+        <v>2.7455298037867291</v>
       </c>
       <c r="E12">
-        <v>2.7455298037867291</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>7</v>
+      <c r="B13">
+        <v>3.953451775862975</v>
       </c>
       <c r="C13">
-        <v>3.953451775862975</v>
+        <v>2.8205471981831831</v>
       </c>
       <c r="D13">
-        <v>2.8205471981831831</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
+      <c r="B14">
+        <v>4.2373773348623507</v>
       </c>
       <c r="C14">
-        <v>4.2373773348623507</v>
+        <v>2.1439987640316729</v>
       </c>
       <c r="D14">
-        <v>2.1439987640316729</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>7</v>
+      <c r="B15">
+        <v>3.403838042480801</v>
       </c>
       <c r="C15">
-        <v>3.403838042480801</v>
+        <v>5.0014352022413622</v>
       </c>
       <c r="D15">
-        <v>5.0014352022413622</v>
+        <v>3.5385395512427178</v>
       </c>
       <c r="E15">
-        <v>3.5385395512427178</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>9</v>
+      <c r="B16">
+        <v>5.909172420648952</v>
       </c>
       <c r="C16">
-        <v>5.909172420648952</v>
+        <v>9.4253661870179535</v>
       </c>
       <c r="D16">
-        <v>9.4253661870179535</v>
+        <v>2.00643376730206</v>
       </c>
       <c r="E16">
-        <v>2.00643376730206</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>9</v>
+      <c r="B17">
+        <v>4.7955199112130371</v>
       </c>
       <c r="C17">
-        <v>4.7955199112130371</v>
+        <v>6.1367574953773198</v>
       </c>
       <c r="D17">
-        <v>6.1367574953773198</v>
+        <v>1.8708905282547139</v>
       </c>
       <c r="E17">
-        <v>1.8708905282547139</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>8</v>
+      <c r="B18">
+        <v>2.8124040215936921</v>
       </c>
       <c r="C18">
-        <v>2.8124040215936921</v>
+        <v>4.0938198394859144</v>
       </c>
       <c r="D18">
-        <v>4.0938198394859144</v>
+        <v>5.1545872432610498</v>
       </c>
       <c r="E18">
-        <v>5.1545872432610498</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>7</v>
+      <c r="B19">
+        <v>1.2121559736642471</v>
       </c>
       <c r="C19">
-        <v>1.2121559736642471</v>
+        <v>2.9265926238769571</v>
       </c>
       <c r="D19">
-        <v>2.9265926238769571</v>
+        <v>4.5540000000000003</v>
       </c>
       <c r="E19">
-        <v>4.5540000000000003</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>6</v>
+      <c r="B20">
+        <v>1.66123039548039</v>
       </c>
       <c r="C20">
-        <v>1.66123039548039</v>
+        <v>6.5748112009097186</v>
       </c>
       <c r="D20">
-        <v>6.5748112009097186</v>
+        <v>6.5630480612203401</v>
       </c>
       <c r="E20">
-        <v>6.5630480612203401</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>5</v>
+      <c r="B21">
+        <v>7.2618664789906981</v>
       </c>
       <c r="C21">
-        <v>7.2618664789906981</v>
+        <v>5.5064930373651881</v>
       </c>
       <c r="D21">
-        <v>5.5064930373651881</v>
+        <v>5.3499819683173122</v>
       </c>
       <c r="E21">
-        <v>5.3499819683173122</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>8</v>
+      <c r="B22">
+        <v>3.9161994409160159</v>
       </c>
       <c r="C22">
-        <v>3.9161994409160159</v>
+        <v>3.9120317143715</v>
       </c>
       <c r="D22">
-        <v>3.9120317143715</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>5</v>
+      <c r="B23">
+        <v>5.8671442462804873</v>
       </c>
       <c r="C23">
-        <v>5.8671442462804873</v>
+        <v>5.8233314731510353</v>
       </c>
       <c r="D23">
-        <v>5.8233314731510353</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>6</v>
+      <c r="B24">
+        <v>6.3563721097248136</v>
       </c>
       <c r="C24">
-        <v>6.3563721097248136</v>
+        <v>3.903271594379325</v>
       </c>
       <c r="D24">
-        <v>3.903271594379325</v>
+        <v>3.6770072482387999</v>
       </c>
       <c r="E24">
-        <v>3.6770072482387999</v>
-      </c>
-      <c r="F24">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>9</v>
+      <c r="B25">
+        <v>6.4743225098079789</v>
       </c>
       <c r="C25">
-        <v>6.4743225098079789</v>
+        <v>2.370892254698679</v>
       </c>
       <c r="D25">
-        <v>2.370892254698679</v>
+        <v>2.775437550022096</v>
       </c>
       <c r="E25">
-        <v>2.775437550022096</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>7</v>
+      <c r="B26">
+        <v>2.1410645366486651</v>
       </c>
       <c r="C26">
-        <v>2.1410645366486651</v>
+        <v>2.457906392440441</v>
       </c>
       <c r="D26">
-        <v>2.457906392440441</v>
+        <v>1.378157267994776</v>
       </c>
       <c r="E26">
-        <v>1.378157267994776</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>7</v>
+      <c r="B27">
+        <v>3.992209517563714</v>
       </c>
       <c r="C27">
-        <v>3.992209517563714</v>
+        <v>7.5341036151404053</v>
       </c>
       <c r="D27">
-        <v>7.5341036151404053</v>
+        <v>2.55110146934202</v>
       </c>
       <c r="E27">
-        <v>2.55110146934202</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>9</v>
+      <c r="B28">
+        <v>8.1048382815438771</v>
       </c>
       <c r="C28">
-        <v>8.1048382815438771</v>
+        <v>3.3751243620565989</v>
       </c>
       <c r="D28">
-        <v>3.3751243620565989</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>8</v>
+      <c r="B29">
+        <v>4.7840989526203321</v>
       </c>
       <c r="C29">
-        <v>4.7840989526203321</v>
+        <v>7.0174371046665103</v>
       </c>
       <c r="D29">
-        <v>7.0174371046665103</v>
+        <v>3.7706955857648259</v>
       </c>
       <c r="E29">
-        <v>3.7706955857648259</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>5</v>
+      <c r="B30">
+        <v>6.2146663681335834</v>
       </c>
       <c r="C30">
-        <v>6.2146663681335834</v>
+        <v>4.4018634115775468</v>
       </c>
       <c r="D30">
-        <v>4.4018634115775468</v>
+        <v>3.0407535739757199</v>
       </c>
       <c r="E30">
-        <v>3.0407535739757199</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>6</v>
+      <c r="B31">
+        <v>1.280359637665897</v>
       </c>
       <c r="C31">
-        <v>1.280359637665897</v>
+        <v>3.875286798402231</v>
       </c>
       <c r="D31">
-        <v>3.875286798402231</v>
+        <v>7.7834525908599996</v>
       </c>
       <c r="E31">
-        <v>7.7834525908599996</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>9</v>
+      <c r="B32">
+        <v>9.340669316039067</v>
       </c>
       <c r="C32">
-        <v>9.340669316039067</v>
+        <v>8.3582773709729299</v>
       </c>
       <c r="D32">
-        <v>8.3582773709729299</v>
+        <v>3.9736261552526648</v>
       </c>
       <c r="E32">
-        <v>3.9736261552526648</v>
-      </c>
-      <c r="F32">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>9</v>
+      <c r="B33">
+        <v>3.4171820183349548</v>
       </c>
       <c r="C33">
-        <v>3.4171820183349548</v>
+        <v>7.5327534768817586</v>
       </c>
       <c r="D33">
-        <v>7.5327534768817586</v>
+        <v>4.1334649363396636</v>
       </c>
       <c r="E33">
-        <v>4.1334649363396636</v>
-      </c>
-      <c r="F33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>5</v>
+      <c r="B34">
+        <v>7.5642298270372663</v>
       </c>
       <c r="C34">
-        <v>7.5642298270372663</v>
+        <v>3.127890125602212</v>
       </c>
       <c r="D34">
-        <v>3.127890125602212</v>
+        <v>3.5223865527776579</v>
       </c>
       <c r="E34">
-        <v>3.5223865527776579</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>5</v>
+      <c r="B35">
+        <v>6.001088818309583</v>
       </c>
       <c r="C35">
-        <v>6.001088818309583</v>
+        <v>5.578154311081521</v>
       </c>
       <c r="D35">
-        <v>5.578154311081521</v>
+        <v>2.4865538571690862</v>
       </c>
       <c r="E35">
-        <v>2.4865538571690862</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>6</v>
+      <c r="B36">
+        <v>6.9873168927771028</v>
       </c>
       <c r="C36">
-        <v>6.9873168927771028</v>
+        <v>3.623110165059876</v>
       </c>
       <c r="D36">
-        <v>3.623110165059876</v>
+        <v>2.3658715133579671</v>
       </c>
       <c r="E36">
-        <v>2.3658715133579671</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>5</v>
+      <c r="B37">
+        <v>5.964296803081572</v>
       </c>
       <c r="C37">
-        <v>5.964296803081572</v>
+        <v>5.9376691719305814</v>
       </c>
       <c r="D37">
-        <v>5.9376691719305814</v>
+        <v>1.336453615824172</v>
       </c>
       <c r="E37">
-        <v>1.336453615824172</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>9</v>
+      <c r="B38">
+        <v>3.738109564581904</v>
       </c>
       <c r="C38">
-        <v>3.738109564581904</v>
+        <v>1.130487544100959</v>
       </c>
       <c r="D38">
-        <v>1.130487544100959</v>
+        <v>5.5852266688220498</v>
       </c>
       <c r="E38">
-        <v>5.5852266688220498</v>
-      </c>
-      <c r="F38">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>6</v>
+      <c r="B39">
+        <v>6.7364694562687246</v>
       </c>
       <c r="C39">
-        <v>6.7364694562687246</v>
+        <v>9.6167568136515147</v>
       </c>
       <c r="D39">
-        <v>9.6167568136515147</v>
+        <v>4.8672172368826443</v>
       </c>
       <c r="E39">
-        <v>4.8672172368826443</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>6</v>
+      <c r="B40">
+        <v>8.7621864606785351</v>
       </c>
       <c r="C40">
-        <v>8.7621864606785351</v>
+        <v>4.6536250866367848</v>
       </c>
       <c r="D40">
-        <v>4.6536250866367848</v>
+        <v>3.4685231020049678</v>
       </c>
       <c r="E40">
-        <v>3.4685231020049678</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>9</v>
+      <c r="B41">
+        <v>7.6380689652001257</v>
       </c>
       <c r="C41">
-        <v>7.6380689652001257</v>
+        <v>4.9887961222803039</v>
       </c>
       <c r="D41">
-        <v>4.9887961222803039</v>
+        <v>8.8327907279798907</v>
       </c>
       <c r="E41">
-        <v>8.8327907279798907</v>
-      </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>8</v>
+      <c r="B42">
+        <v>1.984159185796512</v>
       </c>
       <c r="C42">
-        <v>1.984159185796512</v>
+        <v>8.6029982733424468</v>
       </c>
       <c r="D42">
-        <v>8.6029982733424468</v>
+        <v>4.1447458116334897</v>
       </c>
       <c r="E42">
-        <v>4.1447458116334897</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
-        <v>9</v>
+      <c r="B43">
+        <v>9.3602484551693479</v>
       </c>
       <c r="C43">
-        <v>9.3602484551693479</v>
+        <v>6.1185312829552583</v>
       </c>
       <c r="D43">
-        <v>6.1185312829552583</v>
+        <v>3.04960410562038</v>
       </c>
       <c r="E43">
-        <v>3.04960410562038</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>8</v>
+      <c r="B44">
+        <v>3.1202783711835149</v>
       </c>
       <c r="C44">
-        <v>3.1202783711835149</v>
+        <v>6.2039545522864348</v>
       </c>
       <c r="D44">
-        <v>6.2039545522864348</v>
+        <v>3.315760285521693</v>
       </c>
       <c r="E44">
-        <v>3.315760285521693</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
-        <v>6</v>
+      <c r="B45">
+        <v>9.4747394110569125</v>
       </c>
       <c r="C45">
-        <v>9.4747394110569125</v>
+        <v>9.5190024012652277</v>
       </c>
       <c r="D45">
-        <v>9.5190024012652277</v>
+        <v>2.745052739659962</v>
       </c>
       <c r="E45">
-        <v>2.745052739659962</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
-        <v>5</v>
+      <c r="B46">
+        <v>6.2109131568078064</v>
       </c>
       <c r="C46">
-        <v>6.2109131568078064</v>
+        <v>4.0518967575460474</v>
       </c>
       <c r="D46">
-        <v>4.0518967575460474</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
-        <v>8</v>
+      <c r="B47">
+        <v>3.2920591766494152</v>
       </c>
       <c r="C47">
-        <v>3.2920591766494152</v>
+        <v>2.9142648522139161</v>
       </c>
       <c r="D47">
-        <v>2.9142648522139161</v>
+        <v>1.4249699467105099</v>
       </c>
       <c r="E47">
-        <v>1.4249699467105099</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
-        <v>5</v>
+      <c r="B48">
+        <v>5.3917885364492619</v>
       </c>
       <c r="C48">
-        <v>5.3917885364492619</v>
+        <v>1.85205849073388</v>
       </c>
       <c r="D48">
-        <v>1.85205849073388</v>
+        <v>7.32082516577593</v>
       </c>
       <c r="E48">
-        <v>7.32082516577593</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
-        <v>5</v>
+      <c r="B49">
+        <v>7.0729684628301612</v>
       </c>
       <c r="C49">
-        <v>7.0729684628301612</v>
+        <v>2.3067478948452389</v>
       </c>
       <c r="D49">
-        <v>2.3067478948452389</v>
+        <v>8.7550797955705999</v>
       </c>
       <c r="E49">
-        <v>8.7550797955705999</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>8</v>
+      <c r="B50">
+        <v>1.42547623613636</v>
       </c>
       <c r="C50">
-        <v>1.42547623613636</v>
+        <v>6.4305225564931883</v>
       </c>
       <c r="D50">
-        <v>6.4305225564931883</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
-        <v>5</v>
+      <c r="B51">
+        <v>5.5241513978400709</v>
       </c>
       <c r="C51">
-        <v>5.5241513978400709</v>
+        <v>1.4899311854021891</v>
       </c>
       <c r="D51">
-        <v>1.4899311854021891</v>
+        <v>4.6308225088885999</v>
       </c>
       <c r="E51">
-        <v>4.6308225088885999</v>
-      </c>
-      <c r="F51">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F51" xr:uid="{C3361EC7-4FDB-4017-B444-BB7D7D531548}"/>
+  <autoFilter ref="A1:E51" xr:uid="{C3361EC7-4FDB-4017-B444-BB7D7D531548}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>21</v>
@@ -1505,13 +1322,10 @@
       <c r="C2">
         <v>32</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>19</v>
@@ -1519,22 +1333,16 @@
       <c r="C3">
         <v>22</v>
       </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>28</v>
       </c>
       <c r="C4">
         <v>17</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
